--- a/biology/Zoologie/Heliconius_antiochus/Heliconius_antiochus.xlsx
+++ b/biology/Zoologie/Heliconius_antiochus/Heliconius_antiochus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius antiochus est une espèce de lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un papillon aux ailes allongées et arrondies de couleur marron à bleu sombre suivant les sous-espèces avec une ornementation de deux bandes blanches parallèles aux ailes antérieures ce qui sépare l'apex puis une large bande puis la partie basale. Les ailes postérieures sont marron ou bleu sombre  suffusées d'orange ou même rouge vif.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes sont des Passiflora dont Passiflora Astrophea [1].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des Passiflora dont Passiflora Astrophea .
 </t>
         </is>
       </c>
@@ -574,13 +593,13 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside en Guyane, Guyana, Surinam Colombie, Bolivie, Venezuela, au Brésil et au Pérou[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en Guyane, Guyana, Surinam Colombie, Bolivie, Venezuela, au Brésil et au Pérou,.
 Sur les autres projets Wikimedia :
 Heliconius antiochus, sur Wikimedia CommonsHeliconius antiochus, sur Wikispecies
-Biotope
-Il réside dans la forêt tropicale.
 </t>
         </is>
       </c>
@@ -606,27 +625,170 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heliconius_antiochus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_antiochus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Heliconius antiochus a été décrite par le naturaliste suédois Carl von Linné en 1767 sous le nom de Papilio antiochus[2].
-Synonymie
-Papilio antiochus Linné, 1767 Protonyme
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Heliconius antiochus a été décrite par le naturaliste suédois Carl von Linné en 1767 sous le nom de Papilio antiochus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_antiochus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_antiochus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Papilio antiochus Linné, 1767 Protonyme
 Heliconius zobeide (Butler, 1869)
 Heliconius antiochus ab. divisus (Staudinger, 1897)
 Heliconius antiochus ab. alba (Riffarth, 1900)
-Heliconius antiochus alba ab. trimaculata (Krüger, 1933)
-Nom vernaculaire
-Heliconius antiochus se nomme Antiochus Longwing en anglais.
-Taxinomie
-Sous-espèces
+Heliconius antiochus alba ab. trimaculata (Krüger, 1933)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_antiochus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_antiochus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius antiochus se nomme Antiochus Longwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_antiochus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_antiochus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sous-espèces
 Heliconius antiochus antiochus (Linnaeus, 1767) présent en Guyane, au Surinam, en Colombie, en Bolivie, au Brésil et au Pérou
 Heliconius antiochus alba (Riffarth)
 Heliconius antiochus aranea (Fabricius, 1793)
 Heliconius antiochus araneides Staudinger, 1897; présent au Venezuela.
-Heliconius antiochus salvinii Dewitz; présent au Venezuela[2],[3]</t>
+Heliconius antiochus salvinii Dewitz; présent au Venezuela,</t>
         </is>
       </c>
     </row>
